--- a/data/publications/orcid/export_to_manual/Uniwersytet_Gdański_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Gdański_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3505 +436,3792 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Paulina Anikiej - Wiczenbach</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7090-211X</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Validation of the Parental Responsiveness Scale</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2021-04-10</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Current Issues in Personality Psychology</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Paulina_Anikiej_-_Wiczenbach_3</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Paulina Anikiej - Wiczenbach</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7090-211X</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Diagnosis of children with sanfilippo disease – psychological, social and motor assessment</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Acta Neuropsychologica</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Paulina_Anikiej_-_Wiczenbach_4</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Paulina Anikiej - Wiczenbach</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7090-211X</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Dystrofia mięśniowa Duchenne'a - funkcjonowanie poznawcze</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paulina_Anikiej_-_Wiczenbach_6</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Paulina Anikiej - Wiczenbach</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7090-211X</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Wybrane aspekty poznawczego funkcjonowania dorosłego rodzeństwa z galaktozemią klasyczną</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Paulina_Anikiej_-_Wiczenbach_9</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Paulina Anikiej - Wiczenbach</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7090-211X</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Aktualizacja-siebie rodziców dzieci z dystrofią mięśniową Duchenne’a</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Niepełnosprawność - Zagadnienia, Problemy, Rozwiązania</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paulina_Anikiej_-_Wiczenbach_10</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Paulina Anikiej - Wiczenbach</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7090-211X</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Dysmorfie twarzy w zwierciadle społecznych ustosunkowań</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Paulina_Anikiej_-_Wiczenbach_12</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Paulina Anikiej - Wiczenbach</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7090-211X</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t xml:space="preserve">Empathic parenting - dimensions of empathy and attachment as predictors of the responsiveness of mothers and fathers towards toddlers/infants </t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Paulina_Anikiej_-_Wiczenbach_13</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Paweł Andrzej Atroszko</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5707-3882</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Porównanie studentów pedagogiki i pedagogiki specjalnej pod względem wybranych cech osobowości</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Niepełnosprawność. Dyskursy pedagogiki specjalnej</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Paweł_Andrzej_Atroszko_31</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>46</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Paweł Andrzej Atroszko</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5707-3882</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Poszukiwanie wsparcia społecznego jako mediator związku cynicznej wrogości i bezradności, stanowiących współczesne zagrożenia społeczne</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Paweł_Andrzej_Atroszko_32</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>47</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Paweł Andrzej Atroszko</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5707-3882</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Skala Niesprawności Neurologicznej Szpitala Guy jako istotne narzędzie do oceny objawów występujących u osób z SM</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Niepełnosprawność - Zagadnienia, Problemy, Rozwiązania</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Paweł_Andrzej_Atroszko_33</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>66</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Tomasz Besta</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6209-3677</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Football supporters : group identity, perception of in-group and out-group members and pro-group action tendencies</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Revista de Psicologia del Deporte</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Tomasz_Besta_14</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>74</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Tomasz Besta</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6209-3677</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Football supporters: Group identity, perception of in-group and outgroup members and pro-group action tendencies</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Revista de Psicologia del Deporte</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Tomasz_Besta_22</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>75</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Tomasz Besta</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6209-3677</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Rozwój tożsamości muzycznej w perspektywie dialogu z innymi</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Tomasz_Besta_23</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>96</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Mariola Elżbieta Bidzan</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0224-1994</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Aktualizacja-siebie rodziców dzieci z dystrofią mięśniową Duchenne’a</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Niepełnosprawność - Zagadnienia, Problemy, Rozwiązania</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Mariola_Elżbieta_Bidzan_20</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>97</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Mariola Elżbieta Bidzan</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0224-1994</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Diagnoza demencji u osób z niepełnosprawnością intelektualną – aktualne wyzwanie diagnostyczne</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Geriatria</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Mariola_Elżbieta_Bidzan_21</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>106</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Mariola Elżbieta Bidzan</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0224-1994</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Poczucie obciążenia opiekunów osób z chorobą Parkinsona. Przegląd badań</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Geriatria</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Mariola_Elżbieta_Bidzan_30</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>108</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Mariola Elżbieta Bidzan</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0224-1994</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Skala Niesprawności Neurologicznej Szpitala Guy jako istotne narzędzie do oceny objawów występujących u osób z SM</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Niepełnosprawność - Zagadnienia, Problemy, Rozwiązania</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Mariola_Elżbieta_Bidzan_32</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>136</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Judyta Borchet</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6212-9729</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Collective angst and group continuity as predictors of collective action for progressive city policies</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2021-02-15</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Group Processes &amp; Intergroup Relations</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Judyta_Borchet_5</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>138</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Judyta Borchet</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6212-9729</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Orientacje celów osiągnięć nastolatka – rola materializmu nastolatka, materializmu rodziców, samooceny nastolatka i SES rodziny</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Judyta_Borchet_7</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>144</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Judyta Borchet</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6212-9729</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Parentification and coping in Polish adolescents</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Polish Journal of Social Science</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Judyta_Borchet_13</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>146</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Hanna Wanda Brycz</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7003-9793</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Does employment determine self-awareness of biases? Sociodemographic aspects of metacognitive self before and during COVID-19</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2021-09-29</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Journal of International Studies</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Hanna_Wanda_Brycz_1</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>149</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Hanna Wanda Brycz</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7003-9793</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Do Good Old Values Work Today? Polish Students’ Value Priorities in 2006 and 2017 – A Comparative Study</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Hanna_Wanda_Brycz_4</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>151</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Hanna Wanda Brycz</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7003-9793</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Rola metapoznawczego Ja w poszukiwaniu diagnostycznych informacji o sobie</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne (Psychological Journal</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Hanna_Wanda_Brycz_6</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>161</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Hanna Wanda Brycz</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7003-9793</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Determinants of self-regulation in obesity: formation of implicit food preferences</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Health Psychology Report, 5 (3), pp. 1-5</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Hanna_Wanda_Brycz_16</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>162</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Hanna Wanda Brycz</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7003-9793</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Effect of the depletion of self-control strength on the self- regulation of nutritional process in obese individuals</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Baltic Journal  of Health and Physical Activity, 9 (2), pp 64-72</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Hanna_Wanda_Brycz_17</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>169</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>DAGMARA BUDNIK-PRZYBYLSKA</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5943-4773</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Imagery, personality and injury perception in sport - mediating the effect of injury perception and imagery</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Acta Neuropsychologica</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>DAGMARA_BUDNIK-PRZYBYLSKA_7</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>173</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>DAGMARA BUDNIK-PRZYBYLSKA</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5943-4773</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Odporność psychiczna i wizualizacja a poczucie lęku w sportach indywidualnych i zespołowych</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>DAGMARA_BUDNIK-PRZYBYLSKA_11</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>174</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>DAGMARA BUDNIK-PRZYBYLSKA</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5943-4773</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Techniki treningu mentalnego w powrocie do zdrowia po kontuzji</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Rozprawy Naukowe Akademii Wychowania Fizycznego we Wrocławiu</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>DAGMARA_BUDNIK-PRZYBYLSKA_12</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>175</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>DAGMARA BUDNIK-PRZYBYLSKA</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5943-4773</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>V Ogólnopolska Konferencja Praktyczna Psychologia Sportu "Wszechstronny rozwój sportowca"</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Gazeta Uniwersytecka Społeczności Akademickiej Uniwersytetu Gdańskiego</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>DAGMARA_BUDNIK-PRZYBYLSKA_13</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>177</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>DAGMARA BUDNIK-PRZYBYLSKA</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5943-4773</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Poczucie własnej skuteczności pływaków Polskiej Kadry Paraolimpijskiej do RIO2016</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Rocznik Naukowy /Akademii Wychowania Fizycznego i Sportu im. Jędrzeja Śniadeckiego/</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>DAGMARA_BUDNIK-PRZYBYLSKA_15</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>191</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Joanna Weronika Główczewska</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9101-0380</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Emotional intelligence predicts peer-rated social competence above and beyond personality traits</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Current Issues in Personality Psychology</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Joanna_Weronika_Główczewska_2</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>199</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Dorota Elżbieta Godlewska-Werner</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0254-8163</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Czy to jest już wypalenie zawodowe?</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Psychologia w Praktyce</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Dorota_Elżbieta_Godlewska-Werner_7</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>200</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Dorota Elżbieta Godlewska-Werner</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0254-8163</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Czy to jest już wypalenie zawodowe?</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Psychologia w Praktyce</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Dorota_Elżbieta_Godlewska-Werner_8</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>201</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Dorota Elżbieta Godlewska-Werner</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0254-8163</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Organizacyjne metody przeciwdziałania wypaleniu zawodowemu</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Psychologia w Praktyce</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Dorota_Elżbieta_Godlewska-Werner_9</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>202</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Dorota Elżbieta Godlewska-Werner</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0254-8163</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Organizacyjne metody przeciwdziałania wypaleniu zawodowemu</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Psychologia w Praktyce</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Dorota_Elżbieta_Godlewska-Werner_10</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>203</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Dorota Elżbieta Godlewska-Werner</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0254-8163</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Przywiązanie do organizacji i motywacja do pracy a poziom materializmu pracowników - pośrednicząca rola satysfakcji z pracy</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Dorota_Elżbieta_Godlewska-Werner_11</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>204</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Dorota Elżbieta Godlewska-Werner</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0254-8163</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Przywiązanie do organizacji i motywacja do pracy a poziom materializmu pracowników - pośrednicząca rola satysfakcji z pracy</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Dorota_Elżbieta_Godlewska-Werner_12</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>206</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Dorota Elżbieta Godlewska-Werner</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0254-8163</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Zmiana pracy skutkiem doświadczania mobbingu</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Dorota_Elżbieta_Godlewska-Werner_14</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>207</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Dorota Elżbieta Godlewska-Werner</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0254-8163</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Zmiana pracy skutkiem doświadczania mobbingu</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Dorota_Elżbieta_Godlewska-Werner_15</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>214</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Paulina Beata Golińska</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7407-0720</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Diagnoza demencji u osób z niepełnosprawnością intelektualną – aktualne wyzwanie diagnostyczne</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Geriatria</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Paulina_Beata_Golińska_7</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>216</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Paulina Beata Golińska</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7407-0720</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Poczucie obciążenia opiekunów osób z chorobą Parkinsona. Przegląd badań</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Geriatria</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Paulina_Beata_Golińska_9</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>237</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Magdalena Iwanowska</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0878-9523</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Orientacje celów osiągnięć nastolatka - rola materializmu nastolatka, materializmu rodziców, samooceny nastolatka i SES rodziny</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Magdalena_Iwanowska_1</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>263</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Paweł Stefan Jurek</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9958-3941</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Ex-athletes as Parents Promoting Healthy Lifestyles in Their Families: The Nutrition and Physical Activity of Mothers, Fathers, and 6-Year-Old Children</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2021-01-06</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Journal of Family Issues</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Paweł_Stefan_Jurek_12</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>272</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Paweł Stefan Jurek</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9958-3941</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Związek między zaufaniem do przełożonego a postawami pracowników wobec organizacji i milczeniem organizacyjnym</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Paweł_Stefan_Jurek_21</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>286</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Natasza Joanna Kosakowska-Berezecka</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3503-3921</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Równość płci = Wspólna Sprawa. Działania na rzecz równości płci  jako element skutecznego zarządzania różnorodnością  i źródło pozytywnych zmian strukturalnych  w uczelniach wyższych na przykładzie Uniwersytetu Gdańskiego</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Natasza_Joanna_Kosakowska-Berezecka_3</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>300</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Mateusz Jan Lammek</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7876-7314</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Hipoterapia – nowoczesna metoda resocjalizacji społecznej  osób pozbawionych wolności</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Mateusz_Jan_Lammek_3</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>309</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Rafał Marcin Lawendowski</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7966-4293</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Rozwój tożsamości muzycznej w perspektywie dialogu z innymi</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Rafał_Marcin_Lawendowski_8</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>310</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Rafał Marcin Lawendowski</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7966-4293</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Rozwój tożsamości muzycznej w perspektywie dialogu z innymi</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Rafał_Marcin_Lawendowski_9</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>360</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Marta Łockiewicz</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7461-8503</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Polska szkoła w multijęzykowej Europie. Analiza przebiegu edukacji językowej w odniesieniu do nauczania języków obcych</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Prace językoznawcze. Papers in Linguistics</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Marta_Łockiewicz_11</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>403</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Beata Pastwa - Wojciechowska</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0561-6125</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Między empatią a psychopatią, czyli moralni nieskuteczni czy skuteczni niemoralni</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Nauka</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Beata_Pastwa_-_Wojciechowska_7</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>404</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Beata Pastwa - Wojciechowska</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0561-6125</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Między empatią a psychopatią, czyli moralni nieskuteczni czy skuteczni niemoralni</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Nauka</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Beata_Pastwa_-_Wojciechowska_8</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>405</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Beata Pastwa - Wojciechowska</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0561-6125</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Wyobrażeniowy styl myślenia a mechanizmy kontroli emocjonalnej u funkcjonariuszy Samodzielnego Pododdziału Antyterrorystycznego Policji i Biura Ochrony Rządu</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Przegląd Naukowo -Metodyczny. Edukacja dla Bezpieczeństwa</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Beata_Pastwa_-_Wojciechowska_9</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>406</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Beata Pastwa - Wojciechowska</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0561-6125</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Wyobrażeniowy styl myślenia a mechanizmy kontroli emocjonalnej u funkcjonariuszy Samodzielnego Pododdziału Antyterrorystycznego Policji i Biura Ochrony Rządu</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Przegląd Naukowo -Metodyczny. Edukacja dla Bezpieczeństwa</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Beata_Pastwa_-_Wojciechowska_10</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>407</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Beata Pastwa - Wojciechowska</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0561-6125</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Czy policjantki potrzebują wsparcia przełożonych?</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Przegląd Policyjny</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Beata_Pastwa_-_Wojciechowska_11</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>408</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Beata Pastwa - Wojciechowska</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0561-6125</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Czy policjantki potrzebują wsparcia przełożonych?</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Przegląd Policyjny</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Beata_Pastwa_-_Wojciechowska_12</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>409</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Beata Pastwa - Wojciechowska</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0561-6125</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Facebook jako źródło wiedzy i niewiedzy na temat marihuany</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Przegląd Naukowo -Metodyczny. Edukacja dla Bezpieczeństwa</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Beata_Pastwa_-_Wojciechowska_13</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>410</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Beata Pastwa - Wojciechowska</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0561-6125</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Facebook jako źródło wiedzy i niewiedzy na temat marihuany</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Przegląd Naukowo -Metodyczny. Edukacja dla Bezpieczeństwa</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Beata_Pastwa_-_Wojciechowska_14</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>411</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Beata Pastwa - Wojciechowska</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0561-6125</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Pesymizm czy optymizm terapeutyczny, czyli o efekcie zmiany w terapii uzależnienia od alkoholu w warunkach izolacji więziennej u osób z psychopatycznymi cechami osobowości</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Beata_Pastwa_-_Wojciechowska_15</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>412</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Beata Pastwa - Wojciechowska</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0561-6125</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Pesymizm czy optymizm terapeutyczny, czyli o efekcie zmiany w terapii uzależnienia od alkoholu w warunkach izolacji więziennej u osób z psychopatycznymi cechami osobowości</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Beata_Pastwa_-_Wojciechowska_16</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>420</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>The English-speaking, Hungarian, Latvian, Lithuanian, Romanian, Russian, Slovak, and Spanish adaptations of Makarowski’s Stimulating and Instrumental Risk Questionnaire for martial arts athletes</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Archives of Budo</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_4</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>421</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>The Hungarian, Latvian, Lithuanian, Polish, Romanian, Russian, Slovak, and Spanish, adaptation of the Makarowski's Aggression Questionnaire for martial arts athletes</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Archives of Budo</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_5</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>423</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t xml:space="preserve">Lack of control over work and organizational citizenship behavior: overwork climate as a suppressor variable. </t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>2021-02</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Health Psychology Report</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_7</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>427</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Organizational Climate, Organizational Support and Citizenship Behavior in the Army</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Scientific Journal of the Military University of Land Forces</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_11</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>428</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Stress and coping during the COVID-19 pandemic among martial arts athletes - a cross-cultural study</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Archives of Budo</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_12</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>430</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>The Human Factor in Maritime Transport: Personality and Aggression Levels of Master Mariners and Navigation Students</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Advances in Cognitive Psychology</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_14</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>432</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>Threat of using alcohol and psychoactive substances in uniformed formations</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_16</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" t="n">
+        <v>434</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>Stress and coping during the COVID-19 pandemic among martial arts athletes – a cross-cultural study</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>2020-06-30</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>Archives of Budo</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_18</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>435</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t xml:space="preserve">Threat of using alcohol and psychoactive substances in uniformed formations </t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>2020-06-09</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica Et Sociologica</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_19</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>436</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>The relationship between personality, self-esteem, emotional intelligence, and cultural intelligence. A military context</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>2020-05</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Current Issues in Personality Psychology</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_20</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>440</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>How can anger control can be explained by personality traits in the group of prison service officers? Short report</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>Social Studies : Theory and Practice</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_24</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" t="n">
+        <v>441</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>Sprawozdanie z międzynarodowej konferencji pt. "Mafia: il potere della disonestà” [Mafia: moc nieuczciwości] (Padwa, 14 grudnia 2018 r.)</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Przegląd Więziennictwa Polskiego</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_25</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" t="n">
+        <v>442</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>Wyobrażeniowy styl myślenia a mechanizmy kontroli emocjonalnej u funkcjonariuszy Samodzielnego Pododdziału Antyterrorystycznego Policji i Biura Ochrony Rządu</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>Przegląd Naukowo -Metodyczny. Edukacja dla Bezpieczeństwa</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_26</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" t="n">
+        <v>444</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>Czy policjantki potrzebują wsparcia przełożonych?</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Przegląd Policyjny</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_28</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" t="n">
+        <v>445</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Andrzej Piotrowski</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1192-2695</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>Pesymizm czy optymizm terapeutyczny, czyli o efekcie zmiany w terapii uzależnienia od alkoholu w warunkach izolacji więziennej u osób z psychopatycznymi cechami osobowości</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Andrzej_Piotrowski_29</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" t="n">
+        <v>483</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Artur Sawicki</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6179-5765</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>Poszukiwanie wsparcia społecznego jako mediator związku cynicznej wrogości i bezradności, stanowiących współczesne zagrożenia społeczne</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Artur_Sawicki_11</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" t="n">
+        <v>484</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Artur Sawicki</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6179-5765</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>Poszukiwanie wsparcia społecznego jako mediator związku cynicznej wrogości i bezradności, stanowiących współczesne zagrożenia społeczne</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Artur_Sawicki_12</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" t="n">
+        <v>491</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Marcin Radosław Szulc</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0997-0906</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>Bo każdy pijak to złodziej! Problem stygmatyzacji i destygmatyzacji osób uzależnionych</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Serwis Informacyjny Uzależnienia</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Marcin_Radosław_Szulc_2</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="n">
+        <v>493</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Marcin Radosław Szulc</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0997-0906</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>Threat of using alcohol and psychoactive substances in uniformed formations</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Marcin_Radosław_Szulc_4</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" t="n">
+        <v>494</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Marcin Radosław Szulc</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0997-0906</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>„Pozytywny trolling”? O roli mediów społecznościowych w profilaktyce uzależnień</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Serwis Informacyjny Uzależnienia</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Marcin_Radosław_Szulc_5</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" t="n">
+        <v>495</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Marcin Radosław Szulc</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0997-0906</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>Psychologiczne uwarunkowania, konsekwencje i przeciwdziałanie zjawisku cyberprzemocy</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Wychowanie na co Dzień</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Marcin_Radosław_Szulc_6</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" t="n">
+        <v>496</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Marcin Radosław Szulc</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0997-0906</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>Sposoby radzenia sobie ze stresem i umiejscowienie poczucia kontroli u ofiar cyberprzemocy</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>Pomeranian Journal of Life Sciences</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Marcin_Radosław_Szulc_7</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" t="n">
+        <v>497</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Marcin Radosław Szulc</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0997-0906</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>Bezpieczna marihuana? Manipulowanie informacją na temat konopi w mediach społecznościowych oraz konsekwencje zdrowotne ich używania - wyzwania dla profilaktyki</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>Wychowanie na co Dzień</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Marcin_Radosław_Szulc_8</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" t="n">
+        <v>498</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Marcin Radosław Szulc</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0997-0906</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>Facebook jako źródło wiedzy i niewiedzy na temat marihuany</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Przegląd Naukowo -Metodyczny. Edukacja dla Bezpieczeństwa</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Marcin_Radosław_Szulc_9</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" t="n">
+        <v>499</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Marcin Radosław Szulc</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0997-0906</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>Kompetencje społeczne i poziom zapotrzebowania na stymulację u graczy MMO na przykładzie uczestników gry World of Warcraft</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Marcin_Radosław_Szulc_10</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" t="n">
+        <v>500</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Marcin Radosław Szulc</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0997-0906</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>Psychopatologia zjawisk społecznych: zmiany definicyjne</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Marcin_Radosław_Szulc_11</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" t="n">
+        <v>502</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Marcin Radosław Szulc</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0997-0906</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>Wstęp</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>Miscellanea Anthropologica et Sociologica</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Marcin_Radosław_Szulc_13</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" t="n">
+        <v>504</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>Tamara Zofia Walczak-Kozłowska</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9781-7281</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>Nursing care in bipolar disorder – case study</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>Pomeranian Journal of Life Sciences</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Tamara_Zofia_Walczak-Kozłowska_1</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" t="n">
+        <v>509</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Tamara Zofia Walczak-Kozłowska</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9781-7281</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>How do new mothers perceive screening for perinatal depression?</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>2021-01-18</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>Health Psychology Report</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Tamara_Zofia_Walczak-Kozłowska_6</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" t="n">
+        <v>512</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Tamara Zofia Walczak-Kozłowska</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9781-7281</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>Zapobieganie przemocy i wspieranie relacji wcześniak–opiekunowie</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Dziecko Krzywdzone. Teoria, badania, praktyka</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Tamara_Zofia_Walczak-Kozłowska_9</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" t="n">
+        <v>516</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>Tamara Zofia Walczak-Kozłowska</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9781-7281</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>Addicted parents - vulnerable children. Distortions in parentinfant relation and possibilities of help,Uzależnieni rodzice - narażone dziecko. zakłócenia w funkcjonowaniu uzależnionych matek w relacji z niemowlȩtami oraz możliwość skutecznej pomocy</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Tamara_Zofia_Walczak-Kozłowska_13</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" t="n">
+        <v>517</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Tamara Zofia Walczak-Kozłowska</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9781-7281</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>The intensity of anxiety and symptoms of post-traumatic stress disorder in mothers and the cognitive development of their prematurely born children</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>Developmental period medicine</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Tamara_Zofia_Walczak-Kozłowska_14</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" t="n">
+        <v>525</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>Anna Maria Zawadzka</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1350-3881</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t xml:space="preserve">Consumerism at work and its relationship to employees’ life aspirations, self-concept clarity, well-being and growth mindset. </t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>Health Psychology Report</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Anna_Maria_Zawadzka_2</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" t="n">
+        <v>526</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Anna Maria Zawadzka</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1350-3881</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>The role of teenagers' materialism and self-esteem, parental materialism and family SES in achievement goals orientations of adolescents</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Anna_Maria_Zawadzka_3</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" t="n">
+        <v>527</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Anna Maria Zawadzka</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1350-3881</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>Work Motives in the Context of Generational Differences, Gender Differences, and Preferred Values.</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Polish Psychological Bulletin.</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Anna_Maria_Zawadzka_4</t>
         </is>
